--- a/data/financial_statements/soci/PG.xlsx
+++ b/data/financial_statements/soci/PG.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -134,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -491,1595 +605,1634 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>20773000000</v>
+      </c>
+      <c r="C2">
         <v>20612000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>19515000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>19381000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>20953000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>20338000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>18946000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>18109000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>19745000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>19318000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>17698000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>17214000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>18240000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>17798000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>17094000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>16462000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>17438000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>16690000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>16503000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>16281000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>17395000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>16653000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>16079000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>15605000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>16856000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>16518000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>16102000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>15755000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>16915000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>16527000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>17790000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>16930000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>18495000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>18771000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>12831000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>19641000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>21099000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>20830000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>20297000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>20598000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>-0.0086</v>
+      </c>
+      <c r="C3">
         <v>0.0135</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.03</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.0702</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.0612</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.0528</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.07049999999999999</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.052</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.0825</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.0854</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.0353</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.0457</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.046</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.0664</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.0358</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.0111</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.0025</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.0022</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.0264</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.0433</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.032</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.008200000000000001</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>-0.0014</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>-0.0095</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-0.0035</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>-0.0005</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.0949</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.0694</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.0854</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.1195</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.3865</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>-0.138</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>-0.1234</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-0.0988</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-0.3678</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-0.0465</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-0.0485</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.0044</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.0949</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>10897000000</v>
+      </c>
+      <c r="C4">
         <v>10846000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>10802000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>10326000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>10664000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10365000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>9791000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>8922000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>9253000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>9142000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>8942000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>8716000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>8869000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>8723000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>8938000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>8427000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>8919000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>8484000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>9070000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>8384000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>8709000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>8269000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>8402000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>7836000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>8298000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>8102000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>8382000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>7915000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>8460000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>8152000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>9257000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>8927000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>9558000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>9734000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>7942000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>10040000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>10474000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>10574000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>10577000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>10344000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>9876000000</v>
+      </c>
+      <c r="C5">
         <v>9766000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>8713000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>9055000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>10289000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>9973000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>9155000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>9187000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>10492000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>10176000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>8756000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>8498000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>9371000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>9075000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>8156000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>8035000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>8519000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>8206000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>7433000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>7897000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>8686000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>8384000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>7677000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>7769000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>8558000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>8416000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>7720000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>7840000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>8455000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>8375000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>8533000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>8003000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>8937000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>9037000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>4889000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>9601000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>10625000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>10256000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>9720000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>10254000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>5091000000</v>
+      </c>
+      <c r="C6">
         <v>4827000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5115000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5031000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5121000000</v>
       </c>
-      <c r="F6">
-        <v>4926000000</v>
-      </c>
       <c r="G6">
+        <v>4950000000</v>
+      </c>
+      <c r="H6">
         <v>5615000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5402000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5112000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>4895000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5275000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>5045000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>4889000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>4785000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>5003000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>4806000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>4623000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>4652000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>4846000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>4688000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>4767000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>4736000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>4917000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>4409000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>4683000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>4645000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>5218000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>4522000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>4602000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>4607000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>5575000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>4978000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>5358000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>5404000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>2707000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>6295000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>6323000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>6136000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>6761000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>6849000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>4785000000</v>
+      </c>
+      <c r="C7">
         <v>4939000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>3598000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>4024000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5168000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>5023000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3540000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3785000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5380000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5281000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>3481000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3453000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>4482000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>4290000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>-5192000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>3229000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>3896000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>3554000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>2587000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>3209000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>3919000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>3648000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>2760000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>3360000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>3875000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>3771000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>2502000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>3318000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>3853000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>3768000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>930000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>3025000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>3579000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>3633000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>2182000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>3306000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>4302000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>4120000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>2651000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>3405000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>171000000</v>
+      </c>
+      <c r="C8">
         <v>123000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>115000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>109000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>106000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>109000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>117000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>106000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>143000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>136000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>157000000</v>
-      </c>
-      <c r="L8">
-        <v>100000000</v>
       </c>
       <c r="M8">
         <v>100000000</v>
       </c>
+      <c r="N8">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>66000000</v>
+      </c>
+      <c r="C9">
         <v>42000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>21000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>9000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>10000000</v>
       </c>
-      <c r="F9">
-        <v>11000000</v>
-      </c>
       <c r="G9">
+        <v>109000000</v>
+      </c>
+      <c r="H9">
         <v>117000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>106000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>143000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>136000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>157000000</v>
-      </c>
-      <c r="L9">
-        <v>100000000</v>
       </c>
       <c r="M9">
         <v>100000000</v>
       </c>
       <c r="N9">
+        <v>100000000</v>
+      </c>
+      <c r="O9">
         <v>108000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>111000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>131000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>138000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>129000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>136000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>133000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>122000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>115000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>116000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>96000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>122000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>131000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>150000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>146000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>143000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>140000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>147000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>148000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>160000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>170000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>179000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>180000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>185000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>165000000</v>
-      </c>
-      <c r="AM9">
-        <v>163000000</v>
       </c>
       <c r="AN9">
         <v>163000000</v>
       </c>
+      <c r="AO9">
+        <v>163000000</v>
+      </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>62000000</v>
+      </c>
+      <c r="C10">
         <v>285000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>25000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>149000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>113000000</v>
       </c>
-      <c r="F10">
-        <v>134000000</v>
-      </c>
       <c r="G10">
+        <v>12000000</v>
+      </c>
+      <c r="H10">
         <v>24000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>92000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-503000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>16000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-20000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>45000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>50000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>53000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>127000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>49000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>20000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>386000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-298000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>44000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>114000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>103000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>167000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-24000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-619000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-33000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>184000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-92000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-50000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-114000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>339000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-57000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-107000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-126000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-11000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-131000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-120000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-139000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-122000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-117000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>4835000000</v>
+      </c>
+      <c r="C11">
         <v>4997000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>3650000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4071000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>5239000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>5035000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>3564000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>3877000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>4877000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>5297000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>3461000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>3498000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>4532000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>4343000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-5065000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>3278000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>3916000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>3940000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>2289000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>3253000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>4033000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>3751000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>2927000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>3336000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>3256000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>3738000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>2686000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>3226000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>3803000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>3654000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>1269000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>2968000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>3472000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>3507000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>2171000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>3175000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>4182000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>3981000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>2529000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>3288000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>876000000</v>
+      </c>
+      <c r="C12">
         <v>1034000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>592000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>704000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>997000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>909000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>656000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>628000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>990000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>989000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>675000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>541000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>789000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>726000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>172000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>502000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>700000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>729000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>399000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>713000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1472000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>881000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>725000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>780000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>695000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>863000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>678000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>889000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>898000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>877000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>629000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>567000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>798000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>791000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>380000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>644000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>885000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>942000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>636000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>697000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>3959000000</v>
+      </c>
+      <c r="C13">
         <v>3963000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>3058000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>3367000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>4242000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>4126000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>2908000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3249000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3887000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>4308000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>2786000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2957000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>3743000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>3617000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-5237000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>2776000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>3216000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>3211000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1890000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>2540000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>2561000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>2870000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>2202000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>2556000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>2561000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>2875000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>2008000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>2337000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>2905000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>2777000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>640000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>2401000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>2674000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>2716000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>1791000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>2531000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>3297000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>3039000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>1893000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>2591000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>70000000</v>
+      </c>
+      <c r="C14">
         <v>71000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>73000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>68000000</v>
-      </c>
-      <c r="E14">
-        <v>70000000</v>
       </c>
       <c r="F14">
         <v>70000000</v>
       </c>
       <c r="G14">
+        <v>70000000</v>
+      </c>
+      <c r="H14">
         <v>74000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>65000000</v>
-      </c>
-      <c r="I14">
-        <v>66000000</v>
       </c>
       <c r="J14">
         <v>66000000</v>
       </c>
       <c r="K14">
+        <v>66000000</v>
+      </c>
+      <c r="L14">
         <v>70000000</v>
-      </c>
-      <c r="L14">
-        <v>64000000</v>
       </c>
       <c r="M14">
         <v>64000000</v>
       </c>
       <c r="N14">
+        <v>64000000</v>
+      </c>
+      <c r="O14">
         <v>65000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>68000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>64000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>65000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>66000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>67000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>74000000</v>
-      </c>
-      <c r="U14">
-        <v>62000000</v>
       </c>
       <c r="V14">
         <v>62000000</v>
       </c>
       <c r="W14">
+        <v>62000000</v>
+      </c>
+      <c r="X14">
         <v>63000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>60000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>61000000</v>
-      </c>
-      <c r="Z14">
-        <v>63000000</v>
       </c>
       <c r="AA14">
         <v>63000000</v>
@@ -2088,2754 +2241,2814 @@
         <v>63000000</v>
       </c>
       <c r="AC14">
+        <v>63000000</v>
+      </c>
+      <c r="AD14">
         <v>64000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>65000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>129000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>70000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>60000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>71000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>57000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>67000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>58000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>68000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>54000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>26000000</v>
+      </c>
+      <c r="C15">
         <v>24000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>6000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>12000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>19000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>14000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-20000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>33000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>31000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-14000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>40000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>26000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>24000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>4000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>31000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>22000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>12000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>-1000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>29000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>66000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>17000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-13000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>34000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>21000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>43000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>7000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>33000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>22000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>34000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>17000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>35000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>26000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>30000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>41000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>27000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>44000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>30000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>7000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>25000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>3863000000</v>
+      </c>
+      <c r="C16">
         <v>3868000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2979000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>3287000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>4153000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4042000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2832000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>3204000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3788000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>4211000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2730000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2853000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>3653000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>3528000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-5309000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2681000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3129000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>3133000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1824000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>2437000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>2433000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>2791000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>2152000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>2462000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>7814000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>2651000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1888000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>2687000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>3142000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>2536000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>521000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>2153000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>2302000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>1930000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>2508000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>2552000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>3361000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>2969000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>1875000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>2512000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>1.59</v>
+      </c>
+      <c r="C17">
         <v>1.57</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.21</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1.33</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1.66</v>
       </c>
-      <c r="F17">
+      <c r="G17">
+        <v>1.66</v>
+      </c>
+      <c r="H17">
+        <v>1.16</v>
+      </c>
+      <c r="I17">
+        <v>1.3</v>
+      </c>
+      <c r="J17">
+        <v>1.53</v>
+      </c>
+      <c r="K17">
+        <v>1.69</v>
+      </c>
+      <c r="L17">
+        <v>1.1</v>
+      </c>
+      <c r="M17">
+        <v>1.15</v>
+      </c>
+      <c r="N17">
+        <v>1.47</v>
+      </c>
+      <c r="O17">
+        <v>1.41</v>
+      </c>
+      <c r="P17">
+        <v>-2.12</v>
+      </c>
+      <c r="Q17">
+        <v>1.07</v>
+      </c>
+      <c r="R17">
+        <v>1.25</v>
+      </c>
+      <c r="S17">
+        <v>1.26</v>
+      </c>
+      <c r="T17">
+        <v>0.73</v>
+      </c>
+      <c r="U17">
+        <v>0.97</v>
+      </c>
+      <c r="V17">
+        <v>0.96</v>
+      </c>
+      <c r="W17">
+        <v>1.09</v>
+      </c>
+      <c r="X17">
+        <v>0.84</v>
+      </c>
+      <c r="Y17">
+        <v>0.96</v>
+      </c>
+      <c r="Z17">
+        <v>3.01</v>
+      </c>
+      <c r="AA17">
+        <v>0.99</v>
+      </c>
+      <c r="AB17">
+        <v>0.71</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>1.16</v>
+      </c>
+      <c r="AE17">
+        <v>0.93</v>
+      </c>
+      <c r="AF17">
+        <v>0.17</v>
+      </c>
+      <c r="AG17">
+        <v>0.77</v>
+      </c>
+      <c r="AH17">
+        <v>0.85</v>
+      </c>
+      <c r="AI17">
+        <v>0.71</v>
+      </c>
+      <c r="AJ17">
+        <v>0.92</v>
+      </c>
+      <c r="AK17">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AL17">
+        <v>1.24</v>
+      </c>
+      <c r="AM17">
+        <v>1.04</v>
+      </c>
+      <c r="AN17">
+        <v>0.66</v>
+      </c>
+      <c r="AO17">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <v>1.57</v>
+      </c>
+      <c r="D18">
+        <v>1.21</v>
+      </c>
+      <c r="E18">
+        <v>1.33</v>
+      </c>
+      <c r="F18">
+        <v>1.66</v>
+      </c>
+      <c r="G18">
         <v>1.61</v>
       </c>
-      <c r="G17">
-        <v>1.16</v>
-      </c>
-      <c r="H17">
-        <v>1.3</v>
-      </c>
-      <c r="I17">
-        <v>1.53</v>
-      </c>
-      <c r="J17">
-        <v>1.69</v>
-      </c>
-      <c r="K17">
-        <v>1.1</v>
-      </c>
-      <c r="L17">
-        <v>1.15</v>
-      </c>
-      <c r="M17">
+      <c r="H18">
+        <v>1.13</v>
+      </c>
+      <c r="I18">
+        <v>1.26</v>
+      </c>
+      <c r="J18">
         <v>1.47</v>
       </c>
-      <c r="N17">
+      <c r="K18">
+        <v>1.63</v>
+      </c>
+      <c r="L18">
+        <v>1.07</v>
+      </c>
+      <c r="M18">
+        <v>1.12</v>
+      </c>
+      <c r="N18">
         <v>1.41</v>
       </c>
-      <c r="O17">
+      <c r="O18">
+        <v>1.36</v>
+      </c>
+      <c r="P18">
         <v>-2.12</v>
       </c>
-      <c r="P17">
-        <v>1.07</v>
-      </c>
-      <c r="Q17">
-        <v>1.25</v>
-      </c>
-      <c r="R17">
-        <v>1.26</v>
-      </c>
-      <c r="S17">
-        <v>0.73</v>
-      </c>
-      <c r="T17">
-        <v>0.97</v>
-      </c>
-      <c r="U17">
-        <v>0.96</v>
-      </c>
-      <c r="V17">
-        <v>1.09</v>
-      </c>
-      <c r="W17">
-        <v>0.84</v>
-      </c>
-      <c r="X17">
-        <v>0.96</v>
-      </c>
-      <c r="Y17">
-        <v>3.01</v>
-      </c>
-      <c r="Z17">
-        <v>0.99</v>
-      </c>
-      <c r="AA17">
-        <v>0.71</v>
-      </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AC17">
-        <v>1.16</v>
-      </c>
-      <c r="AD17">
-        <v>0.93</v>
-      </c>
-      <c r="AE17">
-        <v>0.17</v>
-      </c>
-      <c r="AF17">
-        <v>0.77</v>
-      </c>
-      <c r="AG17">
-        <v>0.85</v>
-      </c>
-      <c r="AH17">
-        <v>0.71</v>
-      </c>
-      <c r="AI17">
-        <v>0.92</v>
-      </c>
-      <c r="AJ17">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AK17">
-        <v>1.24</v>
-      </c>
-      <c r="AL17">
+      <c r="Q18">
         <v>1.04</v>
-      </c>
-      <c r="AM17">
-        <v>0.66</v>
-      </c>
-      <c r="AN17">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1.57</v>
-      </c>
-      <c r="C18">
-        <v>1.21</v>
-      </c>
-      <c r="D18">
-        <v>1.33</v>
-      </c>
-      <c r="E18">
-        <v>1.66</v>
-      </c>
-      <c r="F18">
-        <v>1.61</v>
-      </c>
-      <c r="G18">
-        <v>1.13</v>
-      </c>
-      <c r="H18">
-        <v>1.26</v>
-      </c>
-      <c r="I18">
-        <v>1.47</v>
-      </c>
-      <c r="J18">
-        <v>1.63</v>
-      </c>
-      <c r="K18">
-        <v>1.07</v>
-      </c>
-      <c r="L18">
-        <v>1.12</v>
-      </c>
-      <c r="M18">
-        <v>1.41</v>
-      </c>
-      <c r="N18">
-        <v>1.36</v>
-      </c>
-      <c r="O18">
-        <v>-2.12</v>
-      </c>
-      <c r="P18">
-        <v>1.04</v>
-      </c>
-      <c r="Q18">
-        <v>1.22</v>
       </c>
       <c r="R18">
         <v>1.22</v>
       </c>
       <c r="S18">
+        <v>1.22</v>
+      </c>
+      <c r="T18">
         <v>0.72</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.95</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.93</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>1.06</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.82</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.93</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>2.88</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>0.96</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>0.97</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>1.12</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.91</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>0.18</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>0.75</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0.82</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>0.89</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.9</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>1.18</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>1.04</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>0.64</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>0.88</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>2366000000</v>
+      </c>
+      <c r="C19">
         <v>2386000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2394000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>2401000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2413000000</v>
       </c>
-      <c r="F19">
-        <v>2428000000</v>
-      </c>
       <c r="G19">
+        <v>2428100000</v>
+      </c>
+      <c r="H19">
         <v>2465800000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2459100000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2475800000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>2486100000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2487100000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>2476200000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>2487000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>2504000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>2503600000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>2509100000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2499700000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>2495800000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>2529300000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>2522700000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>2533900000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>2550500000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>2598100000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>2563300000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>2596600000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>2674700000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>2698900000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>2688700000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>2718900000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>2720100000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>3064706000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>2711700000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>2705700000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>2710600000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>2719800000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>2713100000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>2719200000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>2735200000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>2840909000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>2741500000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>2481000000</v>
+      </c>
+      <c r="C20">
         <v>2504000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>2523000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>2530000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>2544000000</v>
       </c>
-      <c r="F20">
-        <v>2559000000</v>
-      </c>
       <c r="G20">
+        <v>2558900000</v>
+      </c>
+      <c r="H20">
         <v>2601000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2590300000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2615400000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>2625300000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2625800000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2613300000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>2630100000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>2647500000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>2539500000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>2637700000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>2623000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>2612100000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>2656700000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>2645600000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>2669600000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>2690600000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>2740400000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>2705500000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>2737600000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>2822900000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>2844400000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>2835000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>2864600000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>2867500000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>2878500000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>2882500000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>2885200000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>2888000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>2904700000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>2894100000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>2908500000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>2924300000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>2937100000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>2930700000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.4754</v>
+      </c>
+      <c r="C21">
         <v>0.4738</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.4465</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.4672</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.4911</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.4904</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.4832</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.5073</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.5314</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.5268</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.4947</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.4937</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.5138</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.5099</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.4771</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.4881</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.4885</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.4917</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.4504</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.485</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.4993</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.5034999999999999</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.4775</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.4979</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.5077</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.5095</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.4794</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.4976</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.4999</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.5067</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.4797</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.4727</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.4832</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.4814</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.381</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.4888</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.5036</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.4924</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.4789</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.4978</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.2303</v>
+      </c>
+      <c r="C22">
         <v>0.2396</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.1844</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.2076</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.2466</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.247</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.1868</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.209</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.2725</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.2734</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.1967</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.2006</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.2457</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.241</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>-0.3037</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.1961</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.2234</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.2129</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.1568</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.1971</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.2253</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.2191</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.1717</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.2153</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.2299</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.2283</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.1554</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.2106</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.2278</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.228</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.0523</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.1787</v>
-      </c>
-      <c r="AG22">
-        <v>0.1935</v>
       </c>
       <c r="AH22">
         <v>0.1935</v>
       </c>
       <c r="AI22">
+        <v>0.1935</v>
+      </c>
+      <c r="AJ22">
         <v>0.1701</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.1683</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.2039</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.1978</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.1306</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.1653</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>0.2328</v>
+      </c>
+      <c r="C23">
         <v>0.2424</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.187</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.2101</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.25</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.2476</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.1881</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.2141</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.247</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.2742</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.1956</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.2032</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.2485</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.244</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-0.2963</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.1991</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.2246</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.2361</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.1387</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.1998</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.2318</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.2252</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.182</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.2138</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.1932</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.2263</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.1668</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.2048</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.2248</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.2211</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.0713</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.1753</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.1877</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.1868</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.1692</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.1617</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.1982</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.1911</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.1246</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.1596</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>0.186</v>
+      </c>
+      <c r="C24">
         <v>0.1877</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.1527</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.1696</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.1982</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.1987</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.1495</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.1769</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.1918</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.218</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.1543</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.1657</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.2003</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.1982</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>-0.3106</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.1629</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.1794</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.1877</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.1105</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.1497</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.1399</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.1676</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.1338</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>0.1578</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0.4636</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.1605</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>0.1173</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>0.1705</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>0.1858</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.1534</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>0.0293</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>0.1272</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.1245</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.1028</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.1955</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.1299</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.1593</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.1425</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.0924</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.122</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>5343000000</v>
+      </c>
+      <c r="C25">
         <v>5748000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>4199000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>4716000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>5798000000</v>
       </c>
-      <c r="F25">
-        <v>5758000000</v>
-      </c>
       <c r="G25">
+        <v>5734000000</v>
+      </c>
+      <c r="H25">
         <v>4250000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>4468000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>6051000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>5952000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>4295000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>4252000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>5159000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>5013000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>-4372000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>3940000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>4546000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>4197000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>3337000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>3925000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>4595000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>4340000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>3480000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>4025000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>4582000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>4499000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>3341000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>4103000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>4576000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>4499000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1738000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>3811000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>4325000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>4427000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>3006000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>4097000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>5057000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>4891000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>3445000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>4145000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>4785000000</v>
+      </c>
+      <c r="C26">
         <v>4939000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>3598000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>4024000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>5168000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>5023000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>3540000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>3785000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>5380000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>5281000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>3481000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>3453000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>4482000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>4290000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>-5192000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>3229000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>3896000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>3554000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>2587000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>3209000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>3919000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>3648000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>2760000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>3360000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>3875000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>3771000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>2502000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>3318000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>3853000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>3768000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>930000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>3025000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>3579000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>3633000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>2182000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>3306000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>4302000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>4120000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>2651000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>3405000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>3959000000</v>
+      </c>
+      <c r="C27">
         <v>3963000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>3058000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>3367000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>4242000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>4126000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2908000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>3249000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>3887000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>4308000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>2786000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>2957000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>3743000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>3617000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-5237000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>2776000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>3216000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>3211000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1890000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>2540000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>2561000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>2870000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>2202000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>2556000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>2561000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>2875000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>2008000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>2337000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>2905000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>2777000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>640000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>2401000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>2674000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>2716000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>1791000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>2531000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>3297000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>3039000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>1893000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>2591000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z28">
         <v>5335000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-118000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-50000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>446000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>323000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-142000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-102000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-213000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-276000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-696000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>829000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>105000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>175000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>18000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-11000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>3959000000</v>
+      </c>
+      <c r="C29">
         <v>3963000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>3058000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>3367000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>4242000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>4126000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2908000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>3249000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>3887000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>4308000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>2786000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>2957000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>3743000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>3617000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-5237000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>2776000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>3216000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>3211000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1890000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>2540000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>2561000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>2870000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>2202000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>2556000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>7896000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>2757000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>1958000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>2783000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>3228000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>2635000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>538000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>2188000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>2398000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>2020000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>2620000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>2636000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>3472000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>3057000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>1882000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>2591000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>1.6734</v>
+      </c>
+      <c r="C30">
         <v>1.6613</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1.2778</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1.4026</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.7577</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.6993</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1.1964</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>1.3212</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1.57</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>1.7328</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1.1247</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1.1942</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1.505</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1.4445</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-2.0954</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>1.1064</v>
-      </c>
-      <c r="Q30">
-        <v>1.2866</v>
       </c>
       <c r="R30">
         <v>1.2866</v>
       </c>
       <c r="S30">
+        <v>1.2866</v>
+      </c>
+      <c r="T30">
         <v>0.7559</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1.0069</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>1.0107</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1.1253</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.84</v>
-      </c>
-      <c r="X30">
-        <v>0.96</v>
       </c>
       <c r="Y30">
         <v>0.96</v>
       </c>
       <c r="Z30">
+        <v>0.96</v>
+      </c>
+      <c r="AA30">
         <v>1.03</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.74</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.83</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>1.04</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.98</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>0.21</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.85</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.95</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.97</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.62</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.9</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>1.18</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1.08</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.66</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.9451000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>1.5956</v>
+      </c>
+      <c r="C31">
         <v>1.5829</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.2156</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1.3307</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.6673</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1.6124</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1.1364</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1.2543</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1.4862</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>1.641</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>1.0692</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1.1315</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>1.4231</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>1.3662</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-1.9461</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>1.0524</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>1.2261</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>1.2293</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>0.7257</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>0.9601</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.9593</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>1.0667</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.83</v>
-      </c>
-      <c r="X31">
-        <v>0.93</v>
       </c>
       <c r="Y31">
         <v>0.93</v>
       </c>
       <c r="Z31">
+        <v>0.93</v>
+      </c>
+      <c r="AA31">
         <v>1</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>0.71</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>0.8100000000000001</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>1.01</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.96</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>0.22</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>0.82</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.92</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.93</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0.61</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>0.87</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>1.12</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>1.03</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>0.64</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>0.8841</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="W32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X32">
         <v>-0.01</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>1.95</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>-0.04</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>-0.02</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>0.16</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>0.11</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-0.05</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-0.04</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-0.1</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>-0.24</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>0.28</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>0.03</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>0.06</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>0.01</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>-0.0037</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="W33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X33">
         <v>0</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>2.05</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>-0.04</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>-0.03</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.17</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>0.12</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>-0.05</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>-0.04</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>-0.08</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>-0.1</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>-0.26</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>0.3</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>0.04</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>0.06</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>0.01</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>-0.0039</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>1.6734</v>
+      </c>
+      <c r="C34">
         <v>1.6613</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1.2778</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1.4026</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1.7577</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1.6993</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>1.1964</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>1.3212</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>1.57</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>1.7328</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>1.1247</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>1.1942</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>1.505</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>1.4445</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>-2.0954</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>1.1064</v>
-      </c>
-      <c r="Q34">
-        <v>1.2866</v>
       </c>
       <c r="R34">
         <v>1.2866</v>
       </c>
       <c r="S34">
+        <v>1.2866</v>
+      </c>
+      <c r="T34">
         <v>0.7559</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>1.0069</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>1.0107</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>1.1253</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.8628</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.9972</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>3.0409</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>1.0308</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.738</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>1.0351</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>1.1872</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.9687</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.1755</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.8069</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.8863</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.7452</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.967</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.9716</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>1.2768</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>1.1177</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.6625</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.9451000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>1.5956</v>
+      </c>
+      <c r="C35">
         <v>1.5829</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>1.2156</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>1.3307</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>1.6673</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>1.6124</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>1.1364</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>1.2543</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>1.4862</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>1.641</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>1.0692</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>1.1315</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>1.4231</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>1.3662</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>-1.9461</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>1.0524</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>1.2261</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>1.2293</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>0.7257</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>0.9601</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>0.9593</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>1.0667</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0.8179999999999999</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>0.9447</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>2.8843</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>0.9767</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>0.7006</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>0.9817</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>1.1269</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>0.9189000000000001</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>0.1869</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>0.7591</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>0.8310999999999999</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>0.6994</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>0.9073</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>0.9108000000000001</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>1.1937</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>1.0454</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>0.6408</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>0.8841</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
         <v>2503600000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>2523300000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>2530200000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>2544200000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>2558900000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>2573100000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>2590300000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>2615400000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>2625300000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>2612100000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>2613300000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>2630100000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>2647500000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>2509600000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>2637700000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>2623000000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>2612100000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>2620900000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>2645600000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>2669600000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>2690600000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>2695600000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>2705500000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>2737600000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>2827083000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>2811000000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>2835000000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>2864600000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>2867500000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>2878500000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>2882500000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>2885200000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>2888000000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>2891900000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>2894100000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>2908500000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>2924300000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>2937100000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>2930700000</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
+        <v>0.2572</v>
+      </c>
+      <c r="C37">
         <v>0.2789</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.2152</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.2433</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.2767</v>
       </c>
-      <c r="F37">
-        <v>0.2831</v>
-      </c>
       <c r="G37">
+        <v>0.2819</v>
+      </c>
+      <c r="H37">
         <v>0.2243</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>0.2467</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.3065</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>0.3081</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.2427</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>0.247</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.2828</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>0.2817</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>-0.2558</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>0.2393</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>0.2607</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>0.2515</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>0.2022</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>0.2411</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.2642</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.2606</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.2164</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>0.2579</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>0.2718</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>0.2724</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>0.2075</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>0.2604</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>0.2705</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>0.2722</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>0.0977</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>0.2251</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>0.2338</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>0.2358</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>0.2343</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>0.2086</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>0.2397</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>0.2348</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>0.1697</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>0.2012</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B38">
+        <v>0.1721</v>
+      </c>
+      <c r="C38">
         <v>0.1975</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.1903</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.1675</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.2444</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.2283</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.2175</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0.2257</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.2747</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.2453</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>0.2716</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>0.2361</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.2393</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>0.2342</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>0.2428</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>0.2136</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>0.2298</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>0.2137</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>0.2544</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>0.2059</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0.2118</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.218</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.2294</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>0.1948</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>0.178</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>0.1831</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>0.257</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>0.2081</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>0.2649</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>0.2141</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>0.2242</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>0.2098</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>0.1857</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>0.1935</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>0.3512</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>0.2092</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>0.1564</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>0.09810000000000001</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>0.2164</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>0.1875</v>
       </c>
     </row>
